--- a/shelData.xlsx
+++ b/shelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,64 +498,1220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DummyName</t>
+          <t>Pambayang Dalubhasaan ng Marilao</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>14.7718799806491</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>120.94091440623</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Abangan Norte Elementary School</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14.7752529921365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120.944265521577</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JMJ Covered Court</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14.7712372258247</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>120.943458029502</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Our Mother of Perpetual Help Chapel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14.7696189084995</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>120.936960060086</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Abangan Sur Elementary School</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14.7647143396197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>120.942286137427</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ibayo Elementary School</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14.7535649557989</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>120.959816737558</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Northville IV-A Covered Court</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14.7713627238379</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>120.975210215387</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lias Elementary School</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14.7627779447143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>120.965390844846</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FSS Patulo Elementary School</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14.7839553140957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>121.027062736924</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Marilao Central School</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14.7549081782114</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>120.949191076043</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Barangay Hall Nagbalon</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14.7523618894178</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>120.950788291388</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Patubig Elementary School</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14.7788884149633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>120.960345299663</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Old Municipal Bldg.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14.7573006861396</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>120.948177254006</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nicanor V. Guillermo Covered Court</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14.7596963612126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>120.943803121954</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1800</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Prenza Elementary School</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14.7836362981373</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>120.984338290888</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Saog Elementary School</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14.765465938427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>120.956198167611</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>500</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1500</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Sample remarks</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ramcar Covered Court</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>14.7646177280722</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>120.954403339867</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sta. Rosa I Elementary School</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14.7789562092006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>120.973228584392</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sta. Rosa II Elementary School</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14.7865722729873</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>120.968978114161</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Barangay Hall Tabing Ilog</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14.7656033896092</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>120.948513036352</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tabing Ilog Elementary School</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14.7652274561484</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>120.948821314155</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
